--- a/www/definitions.xlsx
+++ b/www/definitions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\cl-out\MetadataCatalogue\dashboard_code\metadata-catalogue-dashboard\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD29159-6CDA-4F71-A9DF-119598E62D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB73520-0ECD-4ED9-BADE-2A560D9C60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>Definition</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Data source(s)</t>
   </si>
   <si>
-    <t>Duplicate</t>
-  </si>
-  <si>
     <t>Equality</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Health &amp; wellbeing topic</t>
   </si>
   <si>
-    <t>Internal/external</t>
-  </si>
-  <si>
     <t>Last updated</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Owner</t>
   </si>
   <si>
-    <t>PHS publication topic</t>
-  </si>
-  <si>
     <t>Sex</t>
   </si>
   <si>
@@ -125,9 +116,6 @@
     <t>List of which equality characteristics the item concerns.</t>
   </si>
   <si>
-    <t>Unclear what this column is, and whether it's worth keeping in</t>
-  </si>
-  <si>
     <t>How frequently the data in the item is updated.</t>
   </si>
   <si>
@@ -146,18 +134,12 @@
     <t>In cases where following the link in the following column will not lead directly to the item, these instructions explain how to reach the item from where the link leads.</t>
   </si>
   <si>
-    <t>A link or links to where the data item can be found.</t>
-  </si>
-  <si>
     <t>Next updated</t>
   </si>
   <si>
     <t>When the data in the item will next be updated.</t>
   </si>
   <si>
-    <t>Which topic or topics the item concerns.</t>
-  </si>
-  <si>
     <t>What sex or sexes the item concerns.</t>
   </si>
   <si>
@@ -203,194 +185,46 @@
     <t>CF Comments</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes - important to keep. Some indicators are published in multiple places so we want to flag this to take note of where there is duplication. One of the aims of the catalogue is to reduce duplication of effort so we want to highlight where there is duplication. </t>
-  </si>
-  <si>
     <t>These shouldn't entirely overlap. Important to keep 'health and wellbeing topic'. The PHS publication topic is only relevant to for some indicators, not all will fit within topics. Also not sure if these publication topics are still relevant - will check. Don't merge!</t>
   </si>
   <si>
-    <t>See above, don't merge.</t>
-  </si>
-  <si>
-    <t>Some indicators are published in multiple places, thus duplicating the work required to publish that single indicator. Any such indicator is marked by a "true" in this column.</t>
-  </si>
-  <si>
-    <t>Possible Values</t>
-  </si>
-  <si>
-    <t>Either "TRUE" or empty</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Long block of text, sometimes starting with a link.</t>
-  </si>
-  <si>
-    <t>[1] │ [empty]
- [2] │ R-Shiny
- [3] │ Prolong healthy life
- [4] │ Poverty
- [5] │ Tableau
- [6] │ education
- [7] │ Website HTML (R)
- [8] │ Needs attention
- [9] │ xlsx
-[10] │ FOR REVIEW - CAN'T SEE ON SHeS
-[11] │ FOR REVIEW - cannot see this indicator
-[12] │ smoking
-[13] │ Prescribing
-[14] │ DWP
-[15] │ Employment
-[16] │ Welfare</t>
-  </si>
-  <si>
-    <t>[1] │ Indicator
-[2] │ Dashboard
-[3] │ Statistical report</t>
-  </si>
-  <si>
-    <t>[1] │ [empty]
- [2] │ SIMD
- [3] │ N/A
- [4] │ Disability
- [5] │ Religion
- [6] │ Ethnicity
- [7] │ Long term conditions
- [8] │ Income
- [9] │ Age
-[10] │ Sex
-[11] │ Gender
-[12] │ UrbanRural
-[13] │ Sexual orientation</t>
-  </si>
-  <si>
-    <t>Either "Internal", "External", or empty.</t>
-  </si>
-  <si>
     <t>Should this ever be empty? Or should all items be labeled as either internal or external?</t>
   </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>[1] │ 3 yearly
- [2] │ Adhoc
- [3] │ Annual
- [4] │ Biennially
- [5] │ Monthly
- [6] │ Only one year of data available
- [7] │ Quarterly
- [8] │ Weekly
- [9] │ four yearly
-[10] │ three yearly
-[11] │ two yearly
-[12] │ [empty]</t>
-  </si>
-  <si>
     <t>Should this ever be empty?</t>
   </si>
   <si>
-    <t>[1] │ All
- [2] │ All population
- [3] │ Female
- [4] │ Female/ Male
- [5] │ Females only
- [6] │ Male &amp; Female
- [7] │ Male and Female
- [8] │ Male and Female split
- [9] │ Males and Females
-[10] │ Males only
-[11] │ no sex breakdown
-[12] │ [empty]</t>
-  </si>
-  <si>
-    <t>Date range</t>
-  </si>
-  <si>
-    <t>Either an email address or an organisation name.</t>
-  </si>
-  <si>
-    <t>One or more URLs, sometimes empty</t>
-  </si>
-  <si>
-    <t>[1] │ [empty]
- [2] │ Scotland
- [3] │ NHS Board
- [4] │ Treatment Centre
- [5] │ Intermediate zone
- [6] │ HSC locality
- [7] │ HSC partnership
- [8] │ Council area
- [9] │ Health board
-[10] │ Local Authority
-[11] │ Health &amp; Social Care Partnership
-[12] │ Health &amp; Social Care Locaility
-[13] │ Intermediate Zone
-[14] │ Alcohol &amp; Drug Partnership
-[15] │ Alcohol &amp; Drug partnership
-[16] │ GP Practice
-[17] │ GP Practice Cluster
-[18] │  Alcohol &amp; drug partnership
-[19] │  Council area, Health board
-[20] │  Scotland
-... and 19 more</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [1] │ [empty]
- [2] │ Health &amp; Care: Acute &amp; Emergency Services
- [3] │ Justice Crime &amp; Violence
- [4] │ Early Years &amp; Young People
- [5] │ Alcohol : Drugs : Smoking
- [6] │ Health &amp; Care: Primary Community &amp; Social Care
- [7] │ Education
- [8] │ Long Term Conditions &amp; Diseases
- [9] │ Place &amp; physical environment
-[10] │ Dental Health
-[11] │ Housing
-[12] │ Income &amp; Poverty
-[13] │ GCR Indicators
-[14] │ Mental health &amp; Wellbeing
-[15] │ Communicable diseases
-[16] │ Physical Activity
-[17] │ Transport
-[18] │ Vulnerable Populations
-[19] │ Diet &amp; Nutrition
-[20] │Employment
-[21] │ Vaccinations
-[22] │ Place &amp; Physical Environment
-[23] │ Climate &amp; Environment
-[24] │ Gambling
-[25] │ Children &amp; Young People
-[26] │ Tobacco</t>
-  </si>
-  <si>
-    <t>[1] │ [empty]
- [2] │ Alcohol
- [3] │ Children
- [4] │ Social Care
- [5] │ Mental health
- [6] │ Population health
- [7] │ Place
- [8] │ Primary care
- [9] │ Pharmacy and prescribing
-[10] │ Equality
-[11] │ Social and community care
-[12] │ Cancer
-[13] │ Healthcare audits
-[14] │ Suicide
-[15] │ Smoking
-[16] │ Drugs
-[17] │ Hospital care
-[18] │ Gender based violence
-[19] │ Conditions and diseases
-[20] │ Diet and healthy weight
-[21] │ Coronavirus (COVID-19)
-[22] │ Waiting times
-[23] │ Immunisations
-[24] │ Official statistics
-[25] │ Screening
-[26] │ Health and wellbeing</t>
+    <t>Produced by PHS</t>
+  </si>
+  <si>
+    <t>Indicator, Dashboard, Statistical report</t>
+  </si>
+  <si>
+    <t>broken down by female &amp; male, female only, male only</t>
+  </si>
+  <si>
+    <t>Age, sex, SIMD, deprivation, religion, sexual orientation, income, long term conditions, urban/rural</t>
+  </si>
+  <si>
+    <t>Scotland, NHS Board, Treatment Centre, Intermediate zone, HSCP, Health board, Local Authority, Alcohol &amp; Drug Partnership, GP Practice,  GP Practice Cluster, Hospital, Prison</t>
+  </si>
+  <si>
+    <t>A URL link or links to where the data item can be found.</t>
+  </si>
+  <si>
+    <t>1 yearly, 2 yearly, 3 yearly, 4 yearly, Adhoc, Monthly, Quarterly, Weekly</t>
+  </si>
+  <si>
+    <t>Health &amp; Care: Acute &amp; Emergency Services, Justice Crime &amp; Violence, Early Years &amp; Young People, Alcohol : Drugs : Smoking, Health &amp; Care: Primary Community &amp; Social Care, Education, Long Term Conditions &amp; Diseases, Place &amp; physical environment, Dental Health, Housing, Income &amp; Poverty, GCR Indicators, Mental health &amp; Wellbeing,  Communicable diseases, Physical Activity, Transport, Vulnerable Populations, Diet &amp; Nutrition, Employment, Vaccinations, Place &amp; Physical Environment,  Climate &amp; Environment,  Gambling, Children &amp; Young People, Tobacco</t>
+  </si>
+  <si>
+    <t>IVF, Hosital care, Crime, Alcohol, Children, Drugs, Social care, Mental health, Disease register, Participation, Acute care, Home care, ADHD, Dentist, Out of hours, Prescribing, Palliative care, Tobacco, Falls, Population health, Place, Multiple sclerosis, Weight, Asthma, Poverty, PPI, Cancer, Food, Active travel, Unpaid care, Life expectancy, Prison, Arthroplasty, Poisonings, Knee replacement, Suicide, Mucolytics, Employment, Pregnancy, Vaccinations, Healthcare audits, Anaesthetic, GP, Virus, Deaths, Injury, Climate change, Finance, Hernia, Surgery, Diabetes, CHD, Vaccinations, COPD, Crime, Physical activity, Trauma, Hip replacement, Technology, Chronic pain, Breastfeeding, CKD, Naloxone, COVID-19,  Injuries, Waiting times, Osteoporosis, Cardiovascular, Hypertension, Gambling, Dementia, Benefits, SHS, NRS</t>
+  </si>
+  <si>
+    <t>Possible values</t>
   </si>
 </sst>
 </file>
@@ -426,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -434,13 +268,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -477,13 +314,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A6F4CA8-7F72-4EA4-8169-C638C617DE69}" name="Table1" displayName="Table1" ref="A1:F22" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F22" xr:uid="{5A6F4CA8-7F72-4EA4-8169-C638C617DE69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5A6F4CA8-7F72-4EA4-8169-C638C617DE69}" name="Table1" displayName="Table1" ref="A1:F20" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F20" xr:uid="{5A6F4CA8-7F72-4EA4-8169-C638C617DE69}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3A56642-AE3F-42D1-8355-3C2C970C0570}" name="Column name" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{E60097C6-3885-417B-BDFD-E9D2A78CECF6}" name="Data type" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{EA87D142-FA73-4B15-A63E-C6C82C20D010}" name="Definition" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{EF973A58-32EF-4A4E-8BB4-F25D5D07A85D}" name="Possible Values" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{EF973A58-32EF-4A4E-8BB4-F25D5D07A85D}" name="Possible values" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{3F8FB725-A20B-4885-9F54-8682FA4C6874}" name="Dev comments" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{BBFB81A9-5411-416D-8CAE-43319B96920D}" name="CF Comments" dataDxfId="0"/>
   </tableColumns>
@@ -492,9 +329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -532,7 +369,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -638,7 +475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -780,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -788,40 +625,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFDBF9C0-FAAB-4204-B643-C7B5F9775585}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" style="2" customWidth="1"/>
     <col min="5" max="5" width="71.1796875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="80" customWidth="1"/>
+    <col min="6" max="6" width="80" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -829,333 +666,274 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" ht="232" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="116" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="391.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="377" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="174" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/www/definitions.xlsx
+++ b/www/definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\cl-out\MetadataCatalogue\dashboard_code\metadata-catalogue-dashboard\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\cl-out\MetadataCatalogue\dashboard_code\metadata-catalogue-dashboard\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB73520-0ECD-4ED9-BADE-2A560D9C60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF9CC1-152A-4BB1-9778-74719C8C9BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
   <si>
     <t>Definition</t>
   </si>
@@ -191,40 +191,37 @@
     <t>Should this ever be empty? Or should all items be labeled as either internal or external?</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Should this ever be empty?</t>
   </si>
   <si>
     <t>Produced by PHS</t>
   </si>
   <si>
-    <t>Indicator, Dashboard, Statistical report</t>
-  </si>
-  <si>
-    <t>broken down by female &amp; male, female only, male only</t>
-  </si>
-  <si>
-    <t>Age, sex, SIMD, deprivation, religion, sexual orientation, income, long term conditions, urban/rural</t>
-  </si>
-  <si>
-    <t>Scotland, NHS Board, Treatment Centre, Intermediate zone, HSCP, Health board, Local Authority, Alcohol &amp; Drug Partnership, GP Practice,  GP Practice Cluster, Hospital, Prison</t>
-  </si>
-  <si>
     <t>A URL link or links to where the data item can be found.</t>
   </si>
   <si>
-    <t>1 yearly, 2 yearly, 3 yearly, 4 yearly, Adhoc, Monthly, Quarterly, Weekly</t>
-  </si>
-  <si>
-    <t>Health &amp; Care: Acute &amp; Emergency Services, Justice Crime &amp; Violence, Early Years &amp; Young People, Alcohol : Drugs : Smoking, Health &amp; Care: Primary Community &amp; Social Care, Education, Long Term Conditions &amp; Diseases, Place &amp; physical environment, Dental Health, Housing, Income &amp; Poverty, GCR Indicators, Mental health &amp; Wellbeing,  Communicable diseases, Physical Activity, Transport, Vulnerable Populations, Diet &amp; Nutrition, Employment, Vaccinations, Place &amp; Physical Environment,  Climate &amp; Environment,  Gambling, Children &amp; Young People, Tobacco</t>
-  </si>
-  <si>
-    <t>IVF, Hosital care, Crime, Alcohol, Children, Drugs, Social care, Mental health, Disease register, Participation, Acute care, Home care, ADHD, Dentist, Out of hours, Prescribing, Palliative care, Tobacco, Falls, Population health, Place, Multiple sclerosis, Weight, Asthma, Poverty, PPI, Cancer, Food, Active travel, Unpaid care, Life expectancy, Prison, Arthroplasty, Poisonings, Knee replacement, Suicide, Mucolytics, Employment, Pregnancy, Vaccinations, Healthcare audits, Anaesthetic, GP, Virus, Deaths, Injury, Climate change, Finance, Hernia, Surgery, Diabetes, CHD, Vaccinations, COPD, Crime, Physical activity, Trauma, Hip replacement, Technology, Chronic pain, Breastfeeding, CKD, Naloxone, COVID-19,  Injuries, Waiting times, Osteoporosis, Cardiovascular, Hypertension, Gambling, Dementia, Benefits, SHS, NRS</t>
-  </si>
-  <si>
     <t>Possible values</t>
+  </si>
+  <si>
+    <t>1 yearly| 2 yearly| 3 yearly| 4 yearly| Adhoc| Monthly| Quarterly| Weekly</t>
+  </si>
+  <si>
+    <t>Scotland| NHS Board| Treatment Centre| Intermediate zone| HSCP| Health board| Local Authority| Alcohol &amp; Drug Partnership| GP Practice|  GP Practice Cluster| Hospital| Prison</t>
+  </si>
+  <si>
+    <t>Age| sex| SIMD| deprivation| religion| sexual orientation| income| long term conditions| urban/rural</t>
+  </si>
+  <si>
+    <t>broken down by female &amp; male| female only| male only</t>
+  </si>
+  <si>
+    <t>Indicator| Dashboard| Statistical report</t>
+  </si>
+  <si>
+    <t>IVF| Hosital care| Crime| Alcohol| Children| Drugs| Social care| Mental health| Disease register| Participation| Acute care| Home care| ADHD| Dentist| Out of hours| Prescribing| Palliative care| Tobacco| Falls| Population health| Place| Multiple sclerosis| Weight| Asthma| Poverty| PPI| Cancer| Food| Active travel| Unpaid care| Life expectancy| Prison| Arthroplasty| Poisonings| Knee replacement| Suicide| Mucolytics| Employment| Pregnancy| Vaccinations| Healthcare audits| Anaesthetic| GP| Virus| Deaths| Injury| Climate change| Finance| Hernia| Surgery| Diabetes| CHD| Vaccinations| COPD| Crime| Physical activity| Trauma| Hip replacement| Technology| Chronic pain| Breastfeeding| CKD| Naloxone| COVID-19|  Injuries| Waiting times| Osteoporosis| Cardiovascular| Hypertension| Gambling| Dementia| Benefits| SHS| NRS</t>
+  </si>
+  <si>
+    <t>Health &amp; Care: Acute &amp; Emergency Services| Justice Crime &amp; Violence| Early Years &amp; Young People| Alcohol : Drugs : Smoking| Health &amp; Care: Primary Community &amp; Social Care| Education| Long Term Conditions &amp; Diseases| Place &amp; physical environment| Dental Health| Housing| Income &amp; Poverty| GCR Indicators| Mental health &amp; Wellbeing|  Communicable diseases| Physical Activity| Transport| Vulnerable Populations| Diet &amp; Nutrition| Employment| Vaccinations| Place &amp; Physical Environment|  Climate &amp; Environment|  Gambling| Children &amp; Young People| Tobacco</t>
   </si>
 </sst>
 </file>
@@ -628,20 +625,20 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.54296875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="71.1796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="71.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="80" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -652,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>38</v>
@@ -661,7 +658,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +670,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -690,7 +687,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -701,13 +698,13 @@
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,11 +715,11 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -733,11 +730,11 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -754,9 +751,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>40</v>
@@ -769,7 +766,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -781,7 +778,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -793,7 +790,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,7 +807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -821,10 +818,10 @@
         <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -835,11 +832,11 @@
         <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -850,11 +847,11 @@
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -862,11 +859,11 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -878,7 +875,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,14 +886,14 @@
         <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -908,7 +905,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
@@ -920,7 +917,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -929,9 +926,6 @@
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F20" s="2"/>
     </row>

--- a/www/definitions.xlsx
+++ b/www/definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\cl-out\MetadataCatalogue\dashboard_code\metadata-catalogue-dashboard\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF9CC1-152A-4BB1-9778-74719C8C9BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278DCF42-2545-4941-84AD-5871F869AECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -625,7 +625,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/www/definitions.xlsx
+++ b/www/definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\cl-out\MetadataCatalogue\dashboard_code\metadata-catalogue-dashboard\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278DCF42-2545-4941-84AD-5871F869AECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5523630-5F23-438C-AFE3-CF40A9BDEC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="72">
   <si>
     <t>Definition</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Whether the item is a dashboard, a statistical report, or an indicator.</t>
   </si>
   <si>
-    <t>Tags on each item which aid filtering of types of item.</t>
-  </si>
-  <si>
     <t>A description of the item.</t>
   </si>
   <si>
@@ -222,6 +219,39 @@
   </si>
   <si>
     <t>Health &amp; Care: Acute &amp; Emergency Services| Justice Crime &amp; Violence| Early Years &amp; Young People| Alcohol : Drugs : Smoking| Health &amp; Care: Primary Community &amp; Social Care| Education| Long Term Conditions &amp; Diseases| Place &amp; physical environment| Dental Health| Housing| Income &amp; Poverty| GCR Indicators| Mental health &amp; Wellbeing|  Communicable diseases| Physical Activity| Transport| Vulnerable Populations| Diet &amp; Nutrition| Employment| Vaccinations| Place &amp; Physical Environment|  Climate &amp; Environment|  Gambling| Children &amp; Young People| Tobacco</t>
+  </si>
+  <si>
+    <t>Tags on each item which aid filtering of types of item. These can be used to search for a specific area of interesst within a health &amp; wellbeing topic.</t>
+  </si>
+  <si>
+    <t>No| Yes</t>
+  </si>
+  <si>
+    <t>Public Health Scotland (various e-mail addresses provided)| Scottish Government| ScotPHO| Improvement Service| Scottish Prison Service| Office for National Statistics| Health and Safety Executive| UK Government| Higher Education Student Statistics UK| Skills Development Scotland| Trussell Trust</t>
+  </si>
+  <si>
+    <t>Free-text instructions provided</t>
+  </si>
+  <si>
+    <t>Multiple free-text responses</t>
+  </si>
+  <si>
+    <t>Multiple permutations provided in calendar year, financial year or combined years.</t>
+  </si>
+  <si>
+    <t>Multiple dates provided in YYYY-MM-DD format (e.g, 2022-05-31), Season-Year format (e.g., Summer-2024), or Month-Year format (e.g., August-2023)</t>
+  </si>
+  <si>
+    <t>Multiple dates provided in YYYY-MM-DD format (e.g, 2024-08-31), Season-Year format  (e.g, Summer-2024), or Month-Year format (e.g., August-2024)</t>
+  </si>
+  <si>
+    <t>Multiple unique links provided</t>
+  </si>
+  <si>
+    <t>Multiple data sources provided</t>
+  </si>
+  <si>
+    <t>Various combinations of all ages ("All"), an age band (e.g., "0-4"), under a certain age (e.g., "&lt;5") or over a certain age (e.g., "65+").</t>
   </si>
 </sst>
 </file>
@@ -625,307 +655,343 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="71.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="60.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="71.1796875" style="2" customWidth="1"/>
     <col min="6" max="6" width="80" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="108.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="116" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
+      <c r="D20" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="F20" s="2"/>
     </row>

--- a/www/definitions.xlsx
+++ b/www/definitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\stats\cl-out\MetadataCatalogue\dashboard_code\metadata-catalogue-dashboard\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Isdsf00d03\cl-out\MetadataCatalogue\dashboard_code\metadata-catalogue-dashboard\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5523630-5F23-438C-AFE3-CF40A9BDEC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED4B9C-A2C9-4CDB-95F5-73E0E0BC428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6E15B39E-F836-4E17-87F3-3087AF82566E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Dashboard report name</t>
-  </si>
-  <si>
     <t>Data source(s)</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>Various combinations of all ages ("All"), an age band (e.g., "0-4"), under a certain age (e.g., "&lt;5") or over a certain age (e.g., "65+").</t>
+  </si>
+  <si>
+    <t>Dashboard or report name</t>
   </si>
 </sst>
 </file>
@@ -655,12 +655,12 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="60.54296875" style="2" customWidth="1"/>
@@ -670,22 +670,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -693,51 +693,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109" customHeight="1" x14ac:dyDescent="0.35">
@@ -745,13 +745,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -760,13 +760,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -775,66 +775,66 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -843,155 +843,155 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F20" s="2"/>
     </row>
